--- a/team_specific_matrix/Auburn_A.xlsx
+++ b/team_specific_matrix/Auburn_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1897810218978102</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="C2">
-        <v>0.5766423357664233</v>
+        <v>0.6064516129032258</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0218978102189781</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.145985401459854</v>
+        <v>0.1354838709677419</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06569343065693431</v>
+        <v>0.06129032258064516</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005988023952095809</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C3">
-        <v>0.02395209580838323</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03592814371257485</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8023952095808383</v>
+        <v>0.7889447236180904</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1317365269461078</v>
+        <v>0.1457286432160804</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.66</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.28</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09433962264150944</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03144654088050314</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09433962264150944</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2578616352201258</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01257861635220126</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1886792452830189</v>
+        <v>0.1831683168316832</v>
       </c>
       <c r="R6">
-        <v>0.0880503144654088</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="S6">
-        <v>0.2327044025157233</v>
+        <v>0.2475247524752475</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1454545454545454</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03636363636363636</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1515151515151515</v>
+        <v>0.1394230769230769</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01818181818181818</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2060606060606061</v>
+        <v>0.2067307692307692</v>
       </c>
       <c r="R7">
-        <v>0.05454545454545454</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="S7">
-        <v>0.3212121212121212</v>
+        <v>0.3317307692307692</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08098591549295775</v>
+        <v>0.08746355685131195</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02816901408450704</v>
+        <v>0.02623906705539359</v>
       </c>
       <c r="E8">
-        <v>0.00352112676056338</v>
+        <v>0.002915451895043732</v>
       </c>
       <c r="F8">
-        <v>0.04929577464788732</v>
+        <v>0.04664723032069971</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1091549295774648</v>
+        <v>0.1049562682215743</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01408450704225352</v>
+        <v>0.01166180758017493</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1795774647887324</v>
+        <v>0.1749271137026239</v>
       </c>
       <c r="R8">
-        <v>0.08450704225352113</v>
+        <v>0.09329446064139942</v>
       </c>
       <c r="S8">
-        <v>0.4507042253521127</v>
+        <v>0.4518950437317784</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08333333333333333</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007575757575757576</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E9">
-        <v>0.007575757575757576</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="F9">
-        <v>0.05303030303030303</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.143939393939394</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01515151515151515</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2045454545454546</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="R9">
-        <v>0.06818181818181818</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="S9">
-        <v>0.4166666666666667</v>
+        <v>0.4025974025974026</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1388367729831144</v>
+        <v>0.1312803889789303</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0300187617260788</v>
+        <v>0.02836304700162074</v>
       </c>
       <c r="E10">
-        <v>0.0009380863039399625</v>
+        <v>0.002431118314424636</v>
       </c>
       <c r="F10">
-        <v>0.05347091932457786</v>
+        <v>0.05672609400324149</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1285178236397748</v>
+        <v>0.1329011345218801</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01125703564727955</v>
+        <v>0.01215559157212318</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2213883677298311</v>
+        <v>0.2204213938411669</v>
       </c>
       <c r="R10">
-        <v>0.08161350844277673</v>
+        <v>0.08670988654781199</v>
       </c>
       <c r="S10">
-        <v>0.3339587242026266</v>
+        <v>0.3290113452188007</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003816793893129771</v>
+        <v>0.003115264797507788</v>
       </c>
       <c r="G11">
-        <v>0.1259541984732824</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0916030534351145</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="K11">
-        <v>0.1793893129770992</v>
+        <v>0.1838006230529595</v>
       </c>
       <c r="L11">
-        <v>0.5801526717557252</v>
+        <v>0.5825545171339563</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01908396946564886</v>
+        <v>0.01557632398753894</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7579617834394905</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1719745222929936</v>
+        <v>0.171875</v>
       </c>
       <c r="K12">
-        <v>0.01273885350318471</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="L12">
-        <v>0.02547770700636943</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03184713375796178</v>
+        <v>0.03645833333333334</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.34375</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.18</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="I15">
-        <v>0.06</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="J15">
-        <v>0.3933333333333333</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="K15">
-        <v>0.06666666666666667</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01333333333333333</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1466666666666667</v>
+        <v>0.1534391534391534</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01020408163265306</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1377551020408163</v>
+        <v>0.1266375545851528</v>
       </c>
       <c r="I16">
-        <v>0.05612244897959184</v>
+        <v>0.04803493449781659</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.5152838427947598</v>
       </c>
       <c r="K16">
-        <v>0.1326530612244898</v>
+        <v>0.1222707423580786</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02040816326530612</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02551020408163265</v>
+        <v>0.03056768558951965</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1173469387755102</v>
+        <v>0.1310043668122271</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01861702127659574</v>
+        <v>0.02017937219730942</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1329787234042553</v>
+        <v>0.1345291479820628</v>
       </c>
       <c r="I17">
-        <v>0.09308510638297872</v>
+        <v>0.08295964125560538</v>
       </c>
       <c r="J17">
-        <v>0.4787234042553192</v>
+        <v>0.4641255605381166</v>
       </c>
       <c r="K17">
-        <v>0.07712765957446809</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01329787234042553</v>
+        <v>0.02017937219730942</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06648936170212766</v>
+        <v>0.06502242152466367</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1196808510638298</v>
+        <v>0.1233183856502242</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1388888888888889</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="I18">
-        <v>0.09722222222222222</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="J18">
-        <v>0.4375</v>
+        <v>0.3825136612021858</v>
       </c>
       <c r="K18">
-        <v>0.1041666666666667</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01388888888888889</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09027777777777778</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1180555555555556</v>
+        <v>0.1693989071038251</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01733477789815818</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1722643553629469</v>
+        <v>0.1755793226381462</v>
       </c>
       <c r="I19">
-        <v>0.06608884073672806</v>
+        <v>0.0659536541889483</v>
       </c>
       <c r="J19">
-        <v>0.3791982665222102</v>
+        <v>0.3538324420677362</v>
       </c>
       <c r="K19">
-        <v>0.1408450704225352</v>
+        <v>0.1381461675579323</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02166847237269772</v>
+        <v>0.02584670231729055</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05850487540628386</v>
+        <v>0.05793226381461675</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1440953412784399</v>
+        <v>0.1631016042780749</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Auburn_A.xlsx
+++ b/team_specific_matrix/Auburn_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1774193548387097</v>
+        <v>0.1720116618075802</v>
       </c>
       <c r="C2">
-        <v>0.6064516129032258</v>
+        <v>0.6064139941690962</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01935483870967742</v>
+        <v>0.01749271137026239</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1354838709677419</v>
+        <v>0.1282798833819242</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06129032258064516</v>
+        <v>0.07580174927113703</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005025125628140704</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="C3">
-        <v>0.03015075376884422</v>
+        <v>0.03181818181818181</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03015075376884422</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7889447236180904</v>
+        <v>0.7863636363636364</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1457286432160804</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05172413793103448</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6724137931034483</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2758620689655172</v>
+        <v>0.2615384615384616</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09900990099009901</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03465346534653466</v>
+        <v>0.03070175438596491</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08415841584158416</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2475247524752475</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0198019801980198</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1831683168316832</v>
+        <v>0.1885964912280702</v>
       </c>
       <c r="R6">
-        <v>0.08415841584158416</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="S6">
-        <v>0.2475247524752475</v>
+        <v>0.2456140350877193</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1442307692307692</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03365384615384615</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07692307692307693</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1394230769230769</v>
+        <v>0.1375</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01923076923076923</v>
+        <v>0.025</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2067307692307692</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="R7">
-        <v>0.04807692307692308</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="S7">
-        <v>0.3317307692307692</v>
+        <v>0.3041666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08746355685131195</v>
+        <v>0.08375634517766498</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02623906705539359</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="E8">
-        <v>0.002915451895043732</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="F8">
-        <v>0.04664723032069971</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1049562682215743</v>
+        <v>0.09390862944162437</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01166180758017493</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1749271137026239</v>
+        <v>0.1649746192893401</v>
       </c>
       <c r="R8">
-        <v>0.09329446064139942</v>
+        <v>0.1040609137055838</v>
       </c>
       <c r="S8">
-        <v>0.4518950437317784</v>
+        <v>0.4492385786802031</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09090909090909091</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006493506493506494</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="E9">
-        <v>0.006493506493506494</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1337209302325581</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01948051948051948</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1753246753246753</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="R9">
-        <v>0.08441558441558442</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="S9">
-        <v>0.4025974025974026</v>
+        <v>0.4011627906976744</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1312803889789303</v>
+        <v>0.1303387334315169</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02836304700162074</v>
+        <v>0.02798232695139912</v>
       </c>
       <c r="E10">
-        <v>0.002431118314424636</v>
+        <v>0.002209131075110457</v>
       </c>
       <c r="F10">
-        <v>0.05672609400324149</v>
+        <v>0.05522827687776141</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1329011345218801</v>
+        <v>0.1310751104565538</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01215559157212318</v>
+        <v>0.01251840942562592</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2204213938411669</v>
+        <v>0.2187039764359352</v>
       </c>
       <c r="R10">
-        <v>0.08670988654781199</v>
+        <v>0.0898379970544919</v>
       </c>
       <c r="S10">
-        <v>0.3290113452188007</v>
+        <v>0.3321060382916053</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003115264797507788</v>
+        <v>0.00267379679144385</v>
       </c>
       <c r="G11">
-        <v>0.1308411214953271</v>
+        <v>0.1417112299465241</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08411214953271028</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="K11">
-        <v>0.1838006230529595</v>
+        <v>0.1871657754010695</v>
       </c>
       <c r="L11">
-        <v>0.5825545171339563</v>
+        <v>0.5721925133689839</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01557632398753894</v>
+        <v>0.01336898395721925</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7604166666666666</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.171875</v>
+        <v>0.1681818181818182</v>
       </c>
       <c r="K12">
-        <v>0.01041666666666667</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="L12">
-        <v>0.02083333333333333</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03645833333333334</v>
+        <v>0.03181818181818181</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3111111111111111</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04761904761904762</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.164021164021164</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="I15">
-        <v>0.06878306878306878</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="J15">
-        <v>0.3650793650793651</v>
+        <v>0.3486238532110092</v>
       </c>
       <c r="K15">
-        <v>0.06349206349206349</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01587301587301587</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1216931216931217</v>
+        <v>0.1238532110091743</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1534391534391534</v>
+        <v>0.1743119266055046</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008733624454148471</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1266375545851528</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="I16">
-        <v>0.04803493449781659</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="J16">
-        <v>0.5152838427947598</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="K16">
-        <v>0.1222707423580786</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01746724890829694</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03056768558951965</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1310043668122271</v>
+        <v>0.123015873015873</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02017937219730942</v>
+        <v>0.01810865191146881</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1345291479820628</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I17">
-        <v>0.08295964125560538</v>
+        <v>0.07847082494969819</v>
       </c>
       <c r="J17">
-        <v>0.4641255605381166</v>
+        <v>0.4627766599597585</v>
       </c>
       <c r="K17">
-        <v>0.08968609865470852</v>
+        <v>0.096579476861167</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02017937219730942</v>
+        <v>0.01810865191146881</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06502242152466367</v>
+        <v>0.06237424547283702</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1233183856502242</v>
+        <v>0.1207243460764588</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00546448087431694</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1366120218579235</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="I18">
-        <v>0.08743169398907104</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="J18">
-        <v>0.3825136612021858</v>
+        <v>0.3849765258215962</v>
       </c>
       <c r="K18">
-        <v>0.1092896174863388</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01092896174863388</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09836065573770492</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1693989071038251</v>
+        <v>0.1643192488262911</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0196078431372549</v>
+        <v>0.01998401278976818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1755793226381462</v>
+        <v>0.1814548361310951</v>
       </c>
       <c r="I19">
-        <v>0.0659536541889483</v>
+        <v>0.06554756195043965</v>
       </c>
       <c r="J19">
-        <v>0.3538324420677362</v>
+        <v>0.3501199040767386</v>
       </c>
       <c r="K19">
-        <v>0.1381461675579323</v>
+        <v>0.1414868105515588</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02584670231729055</v>
+        <v>0.0231814548361311</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05793226381461675</v>
+        <v>0.05995203836930456</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1631016042780749</v>
+        <v>0.158273381294964</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Auburn_A.xlsx
+++ b/team_specific_matrix/Auburn_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1720116618075802</v>
+        <v>0.171830985915493</v>
       </c>
       <c r="C2">
-        <v>0.6064139941690962</v>
+        <v>0.6084507042253521</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01749271137026239</v>
+        <v>0.01690140845070422</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1282798833819242</v>
+        <v>0.1295774647887324</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07580174927113703</v>
+        <v>0.07323943661971831</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004545454545454545</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="C3">
-        <v>0.03181818181818181</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02727272727272727</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7863636363636364</v>
+        <v>0.7835497835497836</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.15</v>
+        <v>0.1471861471861472</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06153846153846154</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.676923076923077</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2615384615384616</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09649122807017543</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03070175438596491</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="F6">
-        <v>0.09210526315789473</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2456140350877193</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02631578947368421</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1885964912280702</v>
+        <v>0.1974789915966386</v>
       </c>
       <c r="R6">
-        <v>0.07456140350877193</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S6">
-        <v>0.2456140350877193</v>
+        <v>0.2394957983193277</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1416666666666667</v>
+        <v>0.132295719844358</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03333333333333333</v>
+        <v>0.0311284046692607</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07083333333333333</v>
+        <v>0.06614785992217899</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1375</v>
+        <v>0.1439688715953307</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.025</v>
+        <v>0.02334630350194553</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2333333333333333</v>
+        <v>0.2373540856031128</v>
       </c>
       <c r="R7">
-        <v>0.05416666666666667</v>
+        <v>0.05836575875486381</v>
       </c>
       <c r="S7">
-        <v>0.3041666666666666</v>
+        <v>0.3073929961089494</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08375634517766498</v>
+        <v>0.08663366336633663</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03045685279187817</v>
+        <v>0.03217821782178218</v>
       </c>
       <c r="E8">
-        <v>0.002538071065989848</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="F8">
-        <v>0.0583756345177665</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09390862944162437</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01269035532994924</v>
+        <v>0.01237623762376238</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1649746192893401</v>
+        <v>0.1633663366336634</v>
       </c>
       <c r="R8">
-        <v>0.1040609137055838</v>
+        <v>0.1014851485148515</v>
       </c>
       <c r="S8">
-        <v>0.4492385786802031</v>
+        <v>0.4381188118811881</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09302325581395349</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005813953488372093</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="E9">
-        <v>0.005813953488372093</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="F9">
-        <v>0.06976744186046512</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1337209302325581</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01744186046511628</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1744186046511628</v>
+        <v>0.1751412429378531</v>
       </c>
       <c r="R9">
-        <v>0.09883720930232558</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="S9">
-        <v>0.4011627906976744</v>
+        <v>0.4011299435028249</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1303387334315169</v>
+        <v>0.1298793470546487</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02798232695139912</v>
+        <v>0.028388928317956</v>
       </c>
       <c r="E10">
-        <v>0.002209131075110457</v>
+        <v>0.0021291696238467</v>
       </c>
       <c r="F10">
-        <v>0.05522827687776141</v>
+        <v>0.05748757984386089</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1310751104565538</v>
+        <v>0.1298793470546487</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01251840942562592</v>
+        <v>0.0134847409510291</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2187039764359352</v>
+        <v>0.2178850248403123</v>
       </c>
       <c r="R10">
-        <v>0.0898379970544919</v>
+        <v>0.09013484740951029</v>
       </c>
       <c r="S10">
-        <v>0.3321060382916053</v>
+        <v>0.3307310149041874</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.00267379679144385</v>
+        <v>0.002551020408163265</v>
       </c>
       <c r="G11">
-        <v>0.1417112299465241</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08288770053475936</v>
+        <v>0.07908163265306123</v>
       </c>
       <c r="K11">
-        <v>0.1871657754010695</v>
+        <v>0.1862244897959184</v>
       </c>
       <c r="L11">
-        <v>0.5721925133689839</v>
+        <v>0.576530612244898</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01336898395721925</v>
+        <v>0.01275510204081633</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7636363636363637</v>
+        <v>0.7725321888412017</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1681818181818182</v>
+        <v>0.1630901287553648</v>
       </c>
       <c r="K12">
-        <v>0.00909090909090909</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="L12">
-        <v>0.02727272727272727</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03181818181818181</v>
+        <v>0.03004291845493562</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6595744680851063</v>
+        <v>0.68</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3191489361702128</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02127659574468085</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05045871559633028</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1559633027522936</v>
+        <v>0.1511111111111111</v>
       </c>
       <c r="I15">
-        <v>0.06422018348623854</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.3486238532110092</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="K15">
-        <v>0.06880733944954129</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01376146788990826</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1238532110091743</v>
+        <v>0.12</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1743119266055046</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007936507936507936</v>
+        <v>0.007547169811320755</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.130952380952381</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="I16">
-        <v>0.06349206349206349</v>
+        <v>0.06415094339622641</v>
       </c>
       <c r="J16">
-        <v>0.492063492063492</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="K16">
-        <v>0.130952380952381</v>
+        <v>0.1471698113207547</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01587301587301587</v>
+        <v>0.02264150943396226</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03571428571428571</v>
+        <v>0.0339622641509434</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.123015873015873</v>
+        <v>0.1245283018867925</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01810865191146881</v>
+        <v>0.01737451737451737</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1404,25 +1404,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="I17">
-        <v>0.07847082494969819</v>
+        <v>0.07722007722007722</v>
       </c>
       <c r="J17">
-        <v>0.4627766599597585</v>
+        <v>0.4691119691119691</v>
       </c>
       <c r="K17">
-        <v>0.096579476861167</v>
+        <v>0.09652509652509653</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01810865191146881</v>
+        <v>0.01737451737451737</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06237424547283702</v>
+        <v>0.06177606177606178</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1207243460764588</v>
+        <v>0.1177606177606178</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004694835680751174</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1408450704225352</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="I18">
-        <v>0.08450704225352113</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="J18">
-        <v>0.3849765258215962</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="K18">
-        <v>0.1173708920187793</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01408450704225352</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0892018779342723</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1643192488262911</v>
+        <v>0.1636363636363636</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01998401278976818</v>
+        <v>0.01940993788819876</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1814548361310951</v>
+        <v>0.1801242236024845</v>
       </c>
       <c r="I19">
-        <v>0.06554756195043965</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="J19">
-        <v>0.3501199040767386</v>
+        <v>0.3509316770186335</v>
       </c>
       <c r="K19">
-        <v>0.1414868105515588</v>
+        <v>0.1420807453416149</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0231814548361311</v>
+        <v>0.02329192546583851</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05995203836930456</v>
+        <v>0.06055900621118013</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.158273381294964</v>
+        <v>0.1583850931677019</v>
       </c>
     </row>
   </sheetData>
